--- a/resources/metlib_aermod.xlsx
+++ b/resources/metlib_aermod.xlsx
@@ -1,37 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\HEM4v12.6a\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_HEM4\HEM4\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2246422D-61A3-4072-9EA1-DBD2E4FDFFEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4B93968-855F-43EA-B8BD-BBD96E45661C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="600" windowWidth="21135" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metlib_aermod" sheetId="1" r:id="rId1"/>
     <sheet name="ESRI_MAPINFO_SHEET" sheetId="2" state="veryHidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3666" uniqueCount="2620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3682" uniqueCount="2631">
   <si>
     <t>surfcity</t>
   </si>
@@ -7891,6 +7881,39 @@
   </si>
   <si>
     <t>03990</t>
+  </si>
+  <si>
+    <t>AZ_FM001_2013.sfc</t>
+  </si>
+  <si>
+    <t>AZ_FM001_2013.PFL</t>
+  </si>
+  <si>
+    <t>TUSCON, AZ</t>
+  </si>
+  <si>
+    <t>FMMiami.5Y.SFC</t>
+  </si>
+  <si>
+    <t>FMMiami.5Y.PFL</t>
+  </si>
+  <si>
+    <t>Hayden_Met_Onsite_w_TUS.sfc</t>
+  </si>
+  <si>
+    <t>Hayden_ONsite_Met_TUS.pfl</t>
+  </si>
+  <si>
+    <t>HaydenJail, AZ</t>
+  </si>
+  <si>
+    <t>CameraHill, AZ</t>
+  </si>
+  <si>
+    <t>Hayden_w_Tus_Asarco_OS.PFL</t>
+  </si>
+  <si>
+    <t>Hayden_w_Tus_Asarco_OS.SFC</t>
   </si>
 </sst>
 </file>
@@ -8334,16 +8357,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M839"/>
+  <dimension ref="A1:M843"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A823" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H844" sqref="H844"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.41796875" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="13" style="2" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
@@ -8351,11 +8375,11 @@
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="11" style="2" customWidth="1"/>
     <col min="11" max="11" width="5" customWidth="1"/>
-    <col min="12" max="12" width="8.5234375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8396,7 +8420,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -8437,7 +8461,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>488</v>
       </c>
@@ -8478,7 +8502,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>790</v>
       </c>
@@ -8519,7 +8543,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>521</v>
       </c>
@@ -8560,7 +8584,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -8601,7 +8625,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>784</v>
       </c>
@@ -8642,7 +8666,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>786</v>
       </c>
@@ -8683,7 +8707,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>787</v>
       </c>
@@ -8724,7 +8748,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -8765,7 +8789,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>193</v>
       </c>
@@ -8806,7 +8830,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>492</v>
       </c>
@@ -8847,7 +8871,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>122</v>
       </c>
@@ -8888,7 +8912,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>764</v>
       </c>
@@ -8929,7 +8953,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>196</v>
       </c>
@@ -8970,7 +8994,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>788</v>
       </c>
@@ -9011,7 +9035,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>781</v>
       </c>
@@ -9052,7 +9076,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>309</v>
       </c>
@@ -9093,7 +9117,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>631</v>
       </c>
@@ -9134,7 +9158,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>130</v>
       </c>
@@ -9175,7 +9199,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>714</v>
       </c>
@@ -9216,7 +9240,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>671</v>
       </c>
@@ -9257,7 +9281,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>567</v>
       </c>
@@ -9298,7 +9322,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>547</v>
       </c>
@@ -9339,7 +9363,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>503</v>
       </c>
@@ -9380,7 +9404,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>278</v>
       </c>
@@ -9421,7 +9445,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>558</v>
       </c>
@@ -9462,7 +9486,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>707</v>
       </c>
@@ -9503,7 +9527,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>799</v>
       </c>
@@ -9544,7 +9568,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>659</v>
       </c>
@@ -9585,7 +9609,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>528</v>
       </c>
@@ -9626,7 +9650,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -9667,7 +9691,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>461</v>
       </c>
@@ -9708,7 +9732,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>326</v>
       </c>
@@ -9749,7 +9773,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>791</v>
       </c>
@@ -9790,7 +9814,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>471</v>
       </c>
@@ -9831,7 +9855,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>149</v>
       </c>
@@ -9872,7 +9896,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>428</v>
       </c>
@@ -9913,7 +9937,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>466</v>
       </c>
@@ -9954,7 +9978,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>762</v>
       </c>
@@ -9995,7 +10019,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>367</v>
       </c>
@@ -10036,7 +10060,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>662</v>
       </c>
@@ -10077,7 +10101,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>372</v>
       </c>
@@ -10118,7 +10142,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>800</v>
       </c>
@@ -10159,7 +10183,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>209</v>
       </c>
@@ -10200,7 +10224,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>798</v>
       </c>
@@ -10241,7 +10265,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>382</v>
       </c>
@@ -10282,7 +10306,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>197</v>
       </c>
@@ -10323,7 +10347,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>407</v>
       </c>
@@ -10364,7 +10388,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>350</v>
       </c>
@@ -10405,7 +10429,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>417</v>
       </c>
@@ -10446,7 +10470,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>583</v>
       </c>
@@ -10487,7 +10511,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>685</v>
       </c>
@@ -10528,7 +10552,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>686</v>
       </c>
@@ -10569,7 +10593,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>423</v>
       </c>
@@ -10610,7 +10634,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>390</v>
       </c>
@@ -10651,7 +10675,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>389</v>
       </c>
@@ -10692,7 +10716,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>375</v>
       </c>
@@ -10733,7 +10757,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>673</v>
       </c>
@@ -10774,7 +10798,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>217</v>
       </c>
@@ -10815,7 +10839,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>39</v>
       </c>
@@ -10856,7 +10880,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>696</v>
       </c>
@@ -10897,7 +10921,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>82</v>
       </c>
@@ -10938,7 +10962,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>228</v>
       </c>
@@ -10979,7 +11003,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>137</v>
       </c>
@@ -11020,7 +11044,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>255</v>
       </c>
@@ -11061,7 +11085,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>346</v>
       </c>
@@ -11102,7 +11126,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>539</v>
       </c>
@@ -11143,7 +11167,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>675</v>
       </c>
@@ -11184,7 +11208,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>82</v>
       </c>
@@ -11225,7 +11249,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>606</v>
       </c>
@@ -11266,7 +11290,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>415</v>
       </c>
@@ -11307,7 +11331,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>705</v>
       </c>
@@ -11348,7 +11372,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>136</v>
       </c>
@@ -11389,7 +11413,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>41</v>
       </c>
@@ -11430,7 +11454,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>424</v>
       </c>
@@ -11471,7 +11495,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>553</v>
       </c>
@@ -11512,7 +11536,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>250</v>
       </c>
@@ -11553,7 +11577,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>120</v>
       </c>
@@ -11594,7 +11618,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>740</v>
       </c>
@@ -11635,7 +11659,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>560</v>
       </c>
@@ -11676,7 +11700,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>383</v>
       </c>
@@ -11717,7 +11741,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>721</v>
       </c>
@@ -11758,7 +11782,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>511</v>
       </c>
@@ -11799,7 +11823,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>264</v>
       </c>
@@ -11840,7 +11864,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>90</v>
       </c>
@@ -11881,7 +11905,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>44</v>
       </c>
@@ -11922,7 +11946,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>511</v>
       </c>
@@ -11963,7 +11987,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>519</v>
       </c>
@@ -12004,7 +12028,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>532</v>
       </c>
@@ -12045,7 +12069,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>292</v>
       </c>
@@ -12086,7 +12110,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>43</v>
       </c>
@@ -12127,7 +12151,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>726</v>
       </c>
@@ -12168,7 +12192,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>404</v>
       </c>
@@ -12209,7 +12233,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>379</v>
       </c>
@@ -12250,7 +12274,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>47</v>
       </c>
@@ -12291,7 +12315,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>308</v>
       </c>
@@ -12332,7 +12356,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>357</v>
       </c>
@@ -12373,7 +12397,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>713</v>
       </c>
@@ -12414,7 +12438,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>148</v>
       </c>
@@ -12455,7 +12479,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>529</v>
       </c>
@@ -12496,7 +12520,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>647</v>
       </c>
@@ -12537,7 +12561,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>298</v>
       </c>
@@ -12578,7 +12602,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>248</v>
       </c>
@@ -12619,7 +12643,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>597</v>
       </c>
@@ -12660,7 +12684,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>275</v>
       </c>
@@ -12701,7 +12725,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>297</v>
       </c>
@@ -12742,7 +12766,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>766</v>
       </c>
@@ -12783,7 +12807,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>167</v>
       </c>
@@ -12824,7 +12848,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>579</v>
       </c>
@@ -12865,7 +12889,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>595</v>
       </c>
@@ -12906,7 +12930,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>670</v>
       </c>
@@ -12947,7 +12971,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>332</v>
       </c>
@@ -12988,7 +13012,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>552</v>
       </c>
@@ -13029,7 +13053,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>266</v>
       </c>
@@ -13070,7 +13094,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>595</v>
       </c>
@@ -13111,7 +13135,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>611</v>
       </c>
@@ -13152,7 +13176,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>771</v>
       </c>
@@ -13193,7 +13217,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>265</v>
       </c>
@@ -13234,7 +13258,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>700</v>
       </c>
@@ -13275,7 +13299,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>649</v>
       </c>
@@ -13316,7 +13340,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>419</v>
       </c>
@@ -13357,7 +13381,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>569</v>
       </c>
@@ -13398,7 +13422,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>581</v>
       </c>
@@ -13439,7 +13463,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>33</v>
       </c>
@@ -13480,7 +13504,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>391</v>
       </c>
@@ -13521,7 +13545,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>431</v>
       </c>
@@ -13562,7 +13586,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>316</v>
       </c>
@@ -13603,7 +13627,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>362</v>
       </c>
@@ -13644,7 +13668,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>632</v>
       </c>
@@ -13685,7 +13709,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>185</v>
       </c>
@@ -13726,7 +13750,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>33</v>
       </c>
@@ -13767,7 +13791,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>208</v>
       </c>
@@ -13808,7 +13832,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>458</v>
       </c>
@@ -13849,7 +13873,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>733</v>
       </c>
@@ -13890,7 +13914,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>181</v>
       </c>
@@ -13931,7 +13955,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>169</v>
       </c>
@@ -13972,7 +13996,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>116</v>
       </c>
@@ -14013,7 +14037,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>143</v>
       </c>
@@ -14054,7 +14078,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>147</v>
       </c>
@@ -14095,7 +14119,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>239</v>
       </c>
@@ -14136,7 +14160,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>461</v>
       </c>
@@ -14177,7 +14201,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>538</v>
       </c>
@@ -14218,7 +14242,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>582</v>
       </c>
@@ -14259,7 +14283,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>33</v>
       </c>
@@ -14300,7 +14324,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>661</v>
       </c>
@@ -14341,7 +14365,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>111</v>
       </c>
@@ -14382,7 +14406,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>32</v>
       </c>
@@ -14423,7 +14447,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>664</v>
       </c>
@@ -14464,7 +14488,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>283</v>
       </c>
@@ -14505,7 +14529,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>35</v>
       </c>
@@ -14546,7 +14570,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>648</v>
       </c>
@@ -14587,7 +14611,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>651</v>
       </c>
@@ -14628,7 +14652,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>655</v>
       </c>
@@ -14669,7 +14693,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>702</v>
       </c>
@@ -14710,7 +14734,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>224</v>
       </c>
@@ -14751,7 +14775,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>498</v>
       </c>
@@ -14792,7 +14816,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>513</v>
       </c>
@@ -14833,7 +14857,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>518</v>
       </c>
@@ -14874,7 +14898,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>34</v>
       </c>
@@ -14915,7 +14939,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>729</v>
       </c>
@@ -14956,7 +14980,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>747</v>
       </c>
@@ -14997,7 +15021,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>453</v>
       </c>
@@ -15038,7 +15062,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>656</v>
       </c>
@@ -15079,7 +15103,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>623</v>
       </c>
@@ -15120,7 +15144,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>624</v>
       </c>
@@ -15161,7 +15185,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>517</v>
       </c>
@@ -15202,7 +15226,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>92</v>
       </c>
@@ -15243,7 +15267,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>234</v>
       </c>
@@ -15284,7 +15308,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>354</v>
       </c>
@@ -15325,7 +15349,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>801</v>
       </c>
@@ -15366,7 +15390,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>562</v>
       </c>
@@ -15407,7 +15431,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>577</v>
       </c>
@@ -15448,7 +15472,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>581</v>
       </c>
@@ -15489,7 +15513,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>660</v>
       </c>
@@ -15530,7 +15554,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>313</v>
       </c>
@@ -15571,7 +15595,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>663</v>
       </c>
@@ -15612,7 +15636,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>479</v>
       </c>
@@ -15653,7 +15677,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>658</v>
       </c>
@@ -15694,7 +15718,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>587</v>
       </c>
@@ -15735,7 +15759,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>574</v>
       </c>
@@ -15776,7 +15800,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>536</v>
       </c>
@@ -15817,7 +15841,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>363</v>
       </c>
@@ -15858,7 +15882,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>689</v>
       </c>
@@ -15899,7 +15923,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>730</v>
       </c>
@@ -15940,7 +15964,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>792</v>
       </c>
@@ -15981,7 +16005,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>79</v>
       </c>
@@ -16022,7 +16046,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>429</v>
       </c>
@@ -16063,7 +16087,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>37</v>
       </c>
@@ -16104,7 +16128,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>172</v>
       </c>
@@ -16145,7 +16169,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>64</v>
       </c>
@@ -16186,7 +16210,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>99</v>
       </c>
@@ -16227,7 +16251,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>426</v>
       </c>
@@ -16268,7 +16292,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>720</v>
       </c>
@@ -16309,7 +16333,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>36</v>
       </c>
@@ -16350,7 +16374,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>233</v>
       </c>
@@ -16391,7 +16415,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>272</v>
       </c>
@@ -16432,7 +16456,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>443</v>
       </c>
@@ -16473,7 +16497,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>451</v>
       </c>
@@ -16514,7 +16538,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>522</v>
       </c>
@@ -16555,7 +16579,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>219</v>
       </c>
@@ -16596,7 +16620,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>614</v>
       </c>
@@ -16637,7 +16661,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>37</v>
       </c>
@@ -16678,7 +16702,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>230</v>
       </c>
@@ -16719,7 +16743,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>98</v>
       </c>
@@ -16760,7 +16784,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>495</v>
       </c>
@@ -16801,7 +16825,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>343</v>
       </c>
@@ -16842,7 +16866,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>767</v>
       </c>
@@ -16883,7 +16907,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>358</v>
       </c>
@@ -16924,7 +16948,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>543</v>
       </c>
@@ -16965,7 +16989,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>243</v>
       </c>
@@ -17006,7 +17030,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>761</v>
       </c>
@@ -17047,7 +17071,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>500</v>
       </c>
@@ -17088,7 +17112,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>158</v>
       </c>
@@ -17129,7 +17153,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>763</v>
       </c>
@@ -17170,7 +17194,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>474</v>
       </c>
@@ -17211,7 +17235,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>616</v>
       </c>
@@ -17252,7 +17276,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>573</v>
       </c>
@@ -17293,7 +17317,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>320</v>
       </c>
@@ -17334,7 +17358,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>162</v>
       </c>
@@ -17375,7 +17399,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>446</v>
       </c>
@@ -17416,7 +17440,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>91</v>
       </c>
@@ -17457,7 +17481,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>247</v>
       </c>
@@ -17498,7 +17522,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>306</v>
       </c>
@@ -17539,7 +17563,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>418</v>
       </c>
@@ -17580,7 +17604,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>496</v>
       </c>
@@ -17621,7 +17645,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>305</v>
       </c>
@@ -17662,7 +17686,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>573</v>
       </c>
@@ -17703,7 +17727,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>163</v>
       </c>
@@ -17744,7 +17768,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>736</v>
       </c>
@@ -17785,7 +17809,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>751</v>
       </c>
@@ -17826,7 +17850,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>304</v>
       </c>
@@ -17867,7 +17891,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>573</v>
       </c>
@@ -17908,7 +17932,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>666</v>
       </c>
@@ -17949,7 +17973,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>699</v>
       </c>
@@ -17990,7 +18014,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>772</v>
       </c>
@@ -18031,7 +18055,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>305</v>
       </c>
@@ -18072,7 +18096,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>304</v>
       </c>
@@ -18113,7 +18137,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>305</v>
       </c>
@@ -18154,7 +18178,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>306</v>
       </c>
@@ -18195,7 +18219,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>307</v>
       </c>
@@ -18236,7 +18260,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>473</v>
       </c>
@@ -18277,7 +18301,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>537</v>
       </c>
@@ -18318,7 +18342,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>235</v>
       </c>
@@ -18359,7 +18383,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>76</v>
       </c>
@@ -18400,7 +18424,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>591</v>
       </c>
@@ -18441,7 +18465,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>260</v>
       </c>
@@ -18482,7 +18506,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>76</v>
       </c>
@@ -18523,7 +18547,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>802</v>
       </c>
@@ -18564,7 +18588,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>698</v>
       </c>
@@ -18605,7 +18629,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>374</v>
       </c>
@@ -18646,7 +18670,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>42</v>
       </c>
@@ -18687,7 +18711,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>468</v>
       </c>
@@ -18728,7 +18752,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>104</v>
       </c>
@@ -18769,7 +18793,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>667</v>
       </c>
@@ -18810,7 +18834,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>84</v>
       </c>
@@ -18851,7 +18875,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>104</v>
       </c>
@@ -18892,7 +18916,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>66</v>
       </c>
@@ -18933,7 +18957,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>75</v>
       </c>
@@ -18974,7 +18998,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>102</v>
       </c>
@@ -19015,7 +19039,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>84</v>
       </c>
@@ -19056,7 +19080,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>165</v>
       </c>
@@ -19097,7 +19121,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>84</v>
       </c>
@@ -19138,7 +19162,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>321</v>
       </c>
@@ -19179,7 +19203,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>84</v>
       </c>
@@ -19220,7 +19244,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>188</v>
       </c>
@@ -19261,7 +19285,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>643</v>
       </c>
@@ -19302,7 +19326,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>223</v>
       </c>
@@ -19343,7 +19367,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>794</v>
       </c>
@@ -19384,7 +19408,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>371</v>
       </c>
@@ -19425,7 +19449,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>409</v>
       </c>
@@ -19466,7 +19490,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>408</v>
       </c>
@@ -19507,7 +19531,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>377</v>
       </c>
@@ -19548,7 +19572,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>414</v>
       </c>
@@ -19589,7 +19613,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>31</v>
       </c>
@@ -19630,7 +19654,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>413</v>
       </c>
@@ -19671,7 +19695,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>173</v>
       </c>
@@ -19712,7 +19736,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>259</v>
       </c>
@@ -19753,7 +19777,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>394</v>
       </c>
@@ -19794,7 +19818,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>480</v>
       </c>
@@ -19835,7 +19859,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>683</v>
       </c>
@@ -19876,7 +19900,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>576</v>
       </c>
@@ -19917,7 +19941,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>690</v>
       </c>
@@ -19958,7 +19982,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>28</v>
       </c>
@@ -19999,7 +20023,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>56</v>
       </c>
@@ -20040,7 +20064,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>744</v>
       </c>
@@ -20081,7 +20105,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>287</v>
       </c>
@@ -20122,7 +20146,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>476</v>
       </c>
@@ -20163,7 +20187,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>57</v>
       </c>
@@ -20204,7 +20228,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>430</v>
       </c>
@@ -20245,7 +20269,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>402</v>
       </c>
@@ -20286,7 +20310,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>114</v>
       </c>
@@ -20327,7 +20351,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>170</v>
       </c>
@@ -20368,7 +20392,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>388</v>
       </c>
@@ -20409,7 +20433,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>447</v>
       </c>
@@ -20450,7 +20474,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>530</v>
       </c>
@@ -20491,7 +20515,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>601</v>
       </c>
@@ -20532,7 +20556,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>727</v>
       </c>
@@ -20573,7 +20597,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>628</v>
       </c>
@@ -20614,7 +20638,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>251</v>
       </c>
@@ -20655,7 +20679,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>803</v>
       </c>
@@ -20696,7 +20720,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>203</v>
       </c>
@@ -20737,7 +20761,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>204</v>
       </c>
@@ -20778,7 +20802,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>441</v>
       </c>
@@ -20819,7 +20843,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>202</v>
       </c>
@@ -20860,7 +20884,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>592</v>
       </c>
@@ -20901,7 +20925,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>205</v>
       </c>
@@ -20942,7 +20966,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>514</v>
       </c>
@@ -20983,7 +21007,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>483</v>
       </c>
@@ -21024,7 +21048,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>804</v>
       </c>
@@ -21065,7 +21089,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>691</v>
       </c>
@@ -21106,7 +21130,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>617</v>
       </c>
@@ -21147,7 +21171,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>639</v>
       </c>
@@ -21188,7 +21212,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>202</v>
       </c>
@@ -21229,7 +21253,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>194</v>
       </c>
@@ -21270,7 +21294,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>206</v>
       </c>
@@ -21311,7 +21335,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>710</v>
       </c>
@@ -21352,7 +21376,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>145</v>
       </c>
@@ -21393,7 +21417,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>732</v>
       </c>
@@ -21434,7 +21458,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>797</v>
       </c>
@@ -21475,7 +21499,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>331</v>
       </c>
@@ -21516,7 +21540,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>427</v>
       </c>
@@ -21557,7 +21581,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>688</v>
       </c>
@@ -21598,7 +21622,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>393</v>
       </c>
@@ -21639,7 +21663,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>678</v>
       </c>
@@ -21680,7 +21704,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>290</v>
       </c>
@@ -21721,7 +21745,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>393</v>
       </c>
@@ -21762,7 +21786,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>531</v>
       </c>
@@ -21803,7 +21827,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>758</v>
       </c>
@@ -21844,7 +21868,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>564</v>
       </c>
@@ -21885,7 +21909,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>758</v>
       </c>
@@ -21926,7 +21950,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>439</v>
       </c>
@@ -21967,7 +21991,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>585</v>
       </c>
@@ -22008,7 +22032,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>26</v>
       </c>
@@ -22049,7 +22073,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>25</v>
       </c>
@@ -22090,7 +22114,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>195</v>
       </c>
@@ -22131,7 +22155,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>226</v>
       </c>
@@ -22172,7 +22196,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>319</v>
       </c>
@@ -22213,7 +22237,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>386</v>
       </c>
@@ -22254,7 +22278,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>284</v>
       </c>
@@ -22295,7 +22319,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>26</v>
       </c>
@@ -22336,7 +22360,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>324</v>
       </c>
@@ -22377,7 +22401,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>330</v>
       </c>
@@ -22418,7 +22442,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>564</v>
       </c>
@@ -22459,7 +22483,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>370</v>
       </c>
@@ -22500,7 +22524,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>646</v>
       </c>
@@ -22541,7 +22565,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>578</v>
       </c>
@@ -22582,7 +22606,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>456</v>
       </c>
@@ -22623,7 +22647,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>397</v>
       </c>
@@ -22664,7 +22688,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>462</v>
       </c>
@@ -22705,7 +22729,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>310</v>
       </c>
@@ -22746,7 +22770,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>152</v>
       </c>
@@ -22787,7 +22811,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>232</v>
       </c>
@@ -22828,7 +22852,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>449</v>
       </c>
@@ -22869,7 +22893,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>462</v>
       </c>
@@ -22910,7 +22934,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>68</v>
       </c>
@@ -22951,7 +22975,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>706</v>
       </c>
@@ -22992,7 +23016,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>545</v>
       </c>
@@ -23033,7 +23057,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>515</v>
       </c>
@@ -23074,7 +23098,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>249</v>
       </c>
@@ -23115,7 +23139,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>121</v>
       </c>
@@ -23156,7 +23180,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>249</v>
       </c>
@@ -23197,7 +23221,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>544</v>
       </c>
@@ -23238,7 +23262,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>545</v>
       </c>
@@ -23279,7 +23303,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>67</v>
       </c>
@@ -23320,7 +23344,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>300</v>
       </c>
@@ -23361,7 +23385,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>128</v>
       </c>
@@ -23402,7 +23426,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>151</v>
       </c>
@@ -23443,7 +23467,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>535</v>
       </c>
@@ -23484,7 +23508,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>599</v>
       </c>
@@ -23525,7 +23549,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>754</v>
       </c>
@@ -23566,7 +23590,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>559</v>
       </c>
@@ -23607,7 +23631,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>138</v>
       </c>
@@ -23648,7 +23672,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>789</v>
       </c>
@@ -23689,7 +23713,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>556</v>
       </c>
@@ -23730,7 +23754,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>600</v>
       </c>
@@ -23771,7 +23795,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>708</v>
       </c>
@@ -23812,7 +23836,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>129</v>
       </c>
@@ -23853,7 +23877,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>387</v>
       </c>
@@ -23894,7 +23918,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>440</v>
       </c>
@@ -23935,7 +23959,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>738</v>
       </c>
@@ -23976,7 +24000,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>540</v>
       </c>
@@ -24017,7 +24041,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>777</v>
       </c>
@@ -24058,7 +24082,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>349</v>
       </c>
@@ -24099,7 +24123,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>652</v>
       </c>
@@ -24140,7 +24164,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>117</v>
       </c>
@@ -24181,7 +24205,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>561</v>
       </c>
@@ -24222,7 +24246,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>312</v>
       </c>
@@ -24263,7 +24287,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>106</v>
       </c>
@@ -24304,7 +24328,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>118</v>
       </c>
@@ -24345,7 +24369,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>184</v>
       </c>
@@ -24386,7 +24410,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>805</v>
       </c>
@@ -24427,7 +24451,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>504</v>
       </c>
@@ -24468,7 +24492,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>607</v>
       </c>
@@ -24509,7 +24533,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>315</v>
       </c>
@@ -24550,7 +24574,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>773</v>
       </c>
@@ -24591,7 +24615,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>373</v>
       </c>
@@ -24632,7 +24656,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>785</v>
       </c>
@@ -24673,7 +24697,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>55</v>
       </c>
@@ -24714,7 +24738,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>123</v>
       </c>
@@ -24755,7 +24779,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>261</v>
       </c>
@@ -24796,7 +24820,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>301</v>
       </c>
@@ -24837,7 +24861,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>398</v>
       </c>
@@ -24878,7 +24902,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>435</v>
       </c>
@@ -24919,7 +24943,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>533</v>
       </c>
@@ -24960,7 +24984,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>588</v>
       </c>
@@ -25001,7 +25025,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>650</v>
       </c>
@@ -25042,7 +25066,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>806</v>
       </c>
@@ -25083,7 +25107,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>718</v>
       </c>
@@ -25124,7 +25148,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>261</v>
       </c>
@@ -25165,7 +25189,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>353</v>
       </c>
@@ -25206,7 +25230,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>380</v>
       </c>
@@ -25247,7 +25271,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>410</v>
       </c>
@@ -25288,7 +25312,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>603</v>
       </c>
@@ -25329,7 +25353,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>261</v>
       </c>
@@ -25370,7 +25394,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>54</v>
       </c>
@@ -25411,7 +25435,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>335</v>
       </c>
@@ -25452,7 +25476,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>133</v>
       </c>
@@ -25493,7 +25517,7 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>86</v>
       </c>
@@ -25534,7 +25558,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>395</v>
       </c>
@@ -25575,7 +25599,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>69</v>
       </c>
@@ -25616,7 +25640,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>269</v>
       </c>
@@ -25657,7 +25681,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>270</v>
       </c>
@@ -25698,7 +25722,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>70</v>
       </c>
@@ -25739,7 +25763,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>634</v>
       </c>
@@ -25780,7 +25804,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>694</v>
       </c>
@@ -25821,7 +25845,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>697</v>
       </c>
@@ -25862,7 +25886,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>626</v>
       </c>
@@ -25903,7 +25927,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>368</v>
       </c>
@@ -25944,7 +25968,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>157</v>
       </c>
@@ -25985,7 +26009,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>70</v>
       </c>
@@ -26026,7 +26050,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>807</v>
       </c>
@@ -26067,7 +26091,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>70</v>
       </c>
@@ -26108,7 +26132,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>584</v>
       </c>
@@ -26149,7 +26173,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>182</v>
       </c>
@@ -26190,7 +26214,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>220</v>
       </c>
@@ -26231,7 +26255,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>412</v>
       </c>
@@ -26272,7 +26296,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>401</v>
       </c>
@@ -26313,7 +26337,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>695</v>
       </c>
@@ -26354,7 +26378,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>604</v>
       </c>
@@ -26395,7 +26419,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>672</v>
       </c>
@@ -26436,7 +26460,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>405</v>
       </c>
@@ -26477,7 +26501,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>412</v>
       </c>
@@ -26518,7 +26542,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>27</v>
       </c>
@@ -26559,7 +26583,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>695</v>
       </c>
@@ -26600,7 +26624,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>221</v>
       </c>
@@ -26641,7 +26665,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>642</v>
       </c>
@@ -26682,7 +26706,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>420</v>
       </c>
@@ -26723,7 +26747,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>445</v>
       </c>
@@ -26764,7 +26788,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>752</v>
       </c>
@@ -26805,7 +26829,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>693</v>
       </c>
@@ -26846,7 +26870,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>337</v>
       </c>
@@ -26887,7 +26911,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>360</v>
       </c>
@@ -26928,7 +26952,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>501</v>
       </c>
@@ -26969,7 +26993,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>337</v>
       </c>
@@ -27010,7 +27034,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>336</v>
       </c>
@@ -27051,7 +27075,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>339</v>
       </c>
@@ -27092,7 +27116,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>586</v>
       </c>
@@ -27133,7 +27157,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>725</v>
       </c>
@@ -27174,7 +27198,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>345</v>
       </c>
@@ -27215,7 +27239,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>493</v>
       </c>
@@ -27256,7 +27280,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>141</v>
       </c>
@@ -27297,7 +27321,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>448</v>
       </c>
@@ -27338,7 +27362,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>502</v>
       </c>
@@ -27379,7 +27403,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>153</v>
       </c>
@@ -27420,7 +27444,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>178</v>
       </c>
@@ -27461,7 +27485,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>238</v>
       </c>
@@ -27502,7 +27526,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>263</v>
       </c>
@@ -27543,7 +27567,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>154</v>
       </c>
@@ -27584,7 +27608,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>365</v>
       </c>
@@ -27625,7 +27649,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>411</v>
       </c>
@@ -27666,7 +27690,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>454</v>
       </c>
@@ -27707,7 +27731,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>808</v>
       </c>
@@ -27748,7 +27772,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>328</v>
       </c>
@@ -27789,7 +27813,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>361</v>
       </c>
@@ -27830,7 +27854,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>775</v>
       </c>
@@ -27871,7 +27895,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>115</v>
       </c>
@@ -27912,7 +27936,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>369</v>
       </c>
@@ -27953,7 +27977,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>95</v>
       </c>
@@ -27994,7 +28018,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>619</v>
       </c>
@@ -28035,7 +28059,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>22</v>
       </c>
@@ -28076,7 +28100,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>23</v>
       </c>
@@ -28117,7 +28141,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>277</v>
       </c>
@@ -28158,7 +28182,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>198</v>
       </c>
@@ -28199,7 +28223,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>325</v>
       </c>
@@ -28240,7 +28264,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>516</v>
       </c>
@@ -28281,7 +28305,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>541</v>
       </c>
@@ -28322,7 +28346,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>183</v>
       </c>
@@ -28363,7 +28387,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>21</v>
       </c>
@@ -28404,7 +28428,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>641</v>
       </c>
@@ -28445,7 +28469,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>124</v>
       </c>
@@ -28486,7 +28510,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>484</v>
       </c>
@@ -28527,7 +28551,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>174</v>
       </c>
@@ -28568,7 +28592,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>793</v>
       </c>
@@ -28609,7 +28633,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>294</v>
       </c>
@@ -28650,7 +28674,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>333</v>
       </c>
@@ -28691,7 +28715,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="497" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>400</v>
       </c>
@@ -28732,7 +28756,7 @@
         <v>2144</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>144</v>
       </c>
@@ -28773,7 +28797,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>262</v>
       </c>
@@ -28814,7 +28838,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>508</v>
       </c>
@@ -28855,7 +28879,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>334</v>
       </c>
@@ -28896,7 +28920,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="502" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>452</v>
       </c>
@@ -28937,7 +28961,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="503" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>554</v>
       </c>
@@ -28978,7 +29002,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="504" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>566</v>
       </c>
@@ -29019,7 +29043,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="505" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>192</v>
       </c>
@@ -29060,7 +29084,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="506" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>161</v>
       </c>
@@ -29101,7 +29125,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="507" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>669</v>
       </c>
@@ -29142,7 +29166,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="508" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>682</v>
       </c>
@@ -29183,7 +29207,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="509" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>731</v>
       </c>
@@ -29224,7 +29248,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="510" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>73</v>
       </c>
@@ -29265,7 +29289,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="511" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>392</v>
       </c>
@@ -29306,7 +29330,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="512" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>487</v>
       </c>
@@ -29347,7 +29371,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="513" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="513" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>160</v>
       </c>
@@ -29388,7 +29412,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="514" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>359</v>
       </c>
@@ -29429,7 +29453,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="515" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="515" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>293</v>
       </c>
@@ -29470,7 +29494,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="516" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>572</v>
       </c>
@@ -29511,7 +29535,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="517" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>709</v>
       </c>
@@ -29552,7 +29576,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="518" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>470</v>
       </c>
@@ -29593,7 +29617,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="519" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="519" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>225</v>
       </c>
@@ -29634,7 +29658,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="520" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>399</v>
       </c>
@@ -29675,7 +29699,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="521" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="521" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>635</v>
       </c>
@@ -29716,7 +29740,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="522" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>135</v>
       </c>
@@ -29757,7 +29781,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="523" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="523" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>444</v>
       </c>
@@ -29798,7 +29822,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="524" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="524" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>505</v>
       </c>
@@ -29839,7 +29863,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="525" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="525" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>548</v>
       </c>
@@ -29880,7 +29904,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="526" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="526" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>719</v>
       </c>
@@ -29921,7 +29945,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="527" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="527" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>180</v>
       </c>
@@ -29962,7 +29986,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="528" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>687</v>
       </c>
@@ -30003,7 +30027,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="529" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="529" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>48</v>
       </c>
@@ -30044,7 +30068,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="530" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="530" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>103</v>
       </c>
@@ -30085,7 +30109,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="531" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="531" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>526</v>
       </c>
@@ -30126,7 +30150,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="532" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="532" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>712</v>
       </c>
@@ -30167,7 +30191,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="533" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="533" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>214</v>
       </c>
@@ -30208,7 +30232,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="534" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="534" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>645</v>
       </c>
@@ -30249,7 +30273,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="535" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="535" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>723</v>
       </c>
@@ -30290,7 +30314,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="536" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="536" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>65</v>
       </c>
@@ -30331,7 +30355,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="537" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="537" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>210</v>
       </c>
@@ -30372,7 +30396,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="538" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="538" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>620</v>
       </c>
@@ -30413,7 +30437,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="539" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="539" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>438</v>
       </c>
@@ -30454,7 +30478,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="540" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="540" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>256</v>
       </c>
@@ -30495,7 +30519,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="541" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="541" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>322</v>
       </c>
@@ -30536,7 +30560,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="542" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="542" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>296</v>
       </c>
@@ -30577,7 +30601,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="543" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="543" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>186</v>
       </c>
@@ -30618,7 +30642,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="544" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="544" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>722</v>
       </c>
@@ -30659,7 +30683,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="545" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>499</v>
       </c>
@@ -30700,7 +30724,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="546" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>716</v>
       </c>
@@ -30741,7 +30765,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="547" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>282</v>
       </c>
@@ -30782,7 +30806,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="548" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="548" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>191</v>
       </c>
@@ -30823,7 +30847,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="549" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="549" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>80</v>
       </c>
@@ -30864,7 +30888,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="550" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="550" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>279</v>
       </c>
@@ -30905,7 +30929,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="551" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="551" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>769</v>
       </c>
@@ -30946,7 +30970,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="552" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="552" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>463</v>
       </c>
@@ -30987,7 +31011,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="553" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="553" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>437</v>
       </c>
@@ -31028,7 +31052,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="554" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="554" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>142</v>
       </c>
@@ -31069,7 +31093,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="555" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="555" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>396</v>
       </c>
@@ -31110,7 +31134,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="556" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="556" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>520</v>
       </c>
@@ -31151,7 +31175,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="557" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="557" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>755</v>
       </c>
@@ -31192,7 +31216,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="558" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="558" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>547</v>
       </c>
@@ -31233,7 +31257,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="559" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="559" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>156</v>
       </c>
@@ -31274,7 +31298,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="560" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="560" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>51</v>
       </c>
@@ -31315,7 +31339,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="561" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="561" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>271</v>
       </c>
@@ -31356,7 +31380,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="562" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="562" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>281</v>
       </c>
@@ -31397,7 +31421,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="563" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="563" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>329</v>
       </c>
@@ -31438,7 +31462,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="564" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="564" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>610</v>
       </c>
@@ -31479,7 +31503,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="565" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="565" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>636</v>
       </c>
@@ -31520,7 +31544,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="566" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="566" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>703</v>
       </c>
@@ -31561,7 +31585,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="567" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="567" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>749</v>
       </c>
@@ -31602,7 +31626,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="568" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="568" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>317</v>
       </c>
@@ -31643,7 +31667,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="569" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="569" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>590</v>
       </c>
@@ -31684,7 +31708,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="570" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="570" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>295</v>
       </c>
@@ -31725,7 +31749,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="571" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="571" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>681</v>
       </c>
@@ -31766,7 +31790,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="572" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="572" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>50</v>
       </c>
@@ -31807,7 +31831,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="573" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="573" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>52</v>
       </c>
@@ -31848,7 +31872,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="574" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="574" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>244</v>
       </c>
@@ -31889,7 +31913,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="575" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="575" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>481</v>
       </c>
@@ -31930,7 +31954,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="576" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="576" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>665</v>
       </c>
@@ -31971,7 +31995,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="577" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="577" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>796</v>
       </c>
@@ -32012,7 +32036,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="578" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="578" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>547</v>
       </c>
@@ -32053,7 +32077,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="579" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="579" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>745</v>
       </c>
@@ -32094,7 +32118,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="580" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="580" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>17</v>
       </c>
@@ -32135,7 +32159,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="581" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="581" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>776</v>
       </c>
@@ -32176,7 +32200,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="582" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="582" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>715</v>
       </c>
@@ -32217,7 +32241,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="583" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="583" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>460</v>
       </c>
@@ -32258,7 +32282,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="584" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="584" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>450</v>
       </c>
@@ -32299,7 +32323,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="585" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="585" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>253</v>
       </c>
@@ -32340,7 +32364,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="586" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="586" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>546</v>
       </c>
@@ -32381,7 +32405,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="587" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="587" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>213</v>
       </c>
@@ -32422,7 +32446,7 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="588" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="588" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>475</v>
       </c>
@@ -32463,7 +32487,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="589" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="589" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>97</v>
       </c>
@@ -32504,7 +32528,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="590" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="590" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>549</v>
       </c>
@@ -32545,7 +32569,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="591" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="591" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>765</v>
       </c>
@@ -32586,7 +32610,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="592" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="592" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>62</v>
       </c>
@@ -32627,7 +32651,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="593" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="593" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>213</v>
       </c>
@@ -32668,7 +32692,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="594" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="594" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>17</v>
       </c>
@@ -32709,7 +32733,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="595" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="595" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>299</v>
       </c>
@@ -32750,7 +32774,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="596" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="596" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>472</v>
       </c>
@@ -32791,7 +32815,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="597" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="597" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>62</v>
       </c>
@@ -32832,7 +32856,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="598" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="598" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>432</v>
       </c>
@@ -32873,7 +32897,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="599" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="599" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>352</v>
       </c>
@@ -32914,7 +32938,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="600" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="600" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>246</v>
       </c>
@@ -32955,7 +32979,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="601" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="601" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>18</v>
       </c>
@@ -32996,7 +33020,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="602" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="602" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>246</v>
       </c>
@@ -33037,7 +33061,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="603" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="603" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>782</v>
       </c>
@@ -33078,7 +33102,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="604" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="604" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>715</v>
       </c>
@@ -33119,7 +33143,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="605" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="605" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>348</v>
       </c>
@@ -33160,7 +33184,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="606" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="606" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>215</v>
       </c>
@@ -33201,7 +33225,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="607" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="607" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>442</v>
       </c>
@@ -33242,7 +33266,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="608" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="608" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>563</v>
       </c>
@@ -33283,7 +33307,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="609" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="609" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>15</v>
       </c>
@@ -33324,7 +33348,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="610" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="610" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>701</v>
       </c>
@@ -33365,7 +33389,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="611" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="611" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>311</v>
       </c>
@@ -33406,7 +33430,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="612" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="612" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>563</v>
       </c>
@@ -33447,7 +33471,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="613" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="613" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>724</v>
       </c>
@@ -33488,7 +33512,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="614" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="614" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>602</v>
       </c>
@@ -33529,7 +33553,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="615" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="615" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>318</v>
       </c>
@@ -33570,7 +33594,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="616" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="616" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>724</v>
       </c>
@@ -33611,7 +33635,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="617" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="617" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>347</v>
       </c>
@@ -33652,7 +33676,7 @@
         <v>2264</v>
       </c>
     </row>
-    <row r="618" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="618" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>485</v>
       </c>
@@ -33693,7 +33717,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="619" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="619" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>534</v>
       </c>
@@ -33734,7 +33758,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="620" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="620" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>366</v>
       </c>
@@ -33775,7 +33799,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="621" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="621" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>668</v>
       </c>
@@ -33816,7 +33840,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="622" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="622" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>113</v>
       </c>
@@ -33857,7 +33881,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="623" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="623" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>589</v>
       </c>
@@ -33898,7 +33922,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="624" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="624" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>570</v>
       </c>
@@ -33939,7 +33963,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="625" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="625" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>288</v>
       </c>
@@ -33980,7 +34004,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="626" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="626" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>93</v>
       </c>
@@ -34021,7 +34045,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="627" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="627" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>608</v>
       </c>
@@ -34062,7 +34086,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="628" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="628" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>625</v>
       </c>
@@ -34103,7 +34127,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="629" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="629" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>644</v>
       </c>
@@ -34144,7 +34168,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="630" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="630" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>101</v>
       </c>
@@ -34185,7 +34209,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="631" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="631" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>676</v>
       </c>
@@ -34226,7 +34250,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="632" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="632" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>608</v>
       </c>
@@ -34267,7 +34291,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="633" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="633" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>177</v>
       </c>
@@ -34308,7 +34332,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="634" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="634" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>100</v>
       </c>
@@ -34349,7 +34373,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="635" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="635" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>421</v>
       </c>
@@ -34390,7 +34414,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="636" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="636" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>608</v>
       </c>
@@ -34431,7 +34455,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="637" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="637" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>491</v>
       </c>
@@ -34472,7 +34496,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="638" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="638" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>108</v>
       </c>
@@ -34513,7 +34537,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="639" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="639" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>403</v>
       </c>
@@ -34554,7 +34578,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="640" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="640" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>155</v>
       </c>
@@ -34595,7 +34619,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="641" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="641" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>268</v>
       </c>
@@ -34636,7 +34660,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="642" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="642" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>494</v>
       </c>
@@ -34677,7 +34701,7 @@
         <v>2289</v>
       </c>
     </row>
-    <row r="643" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="643" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>593</v>
       </c>
@@ -34718,7 +34742,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="644" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="644" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>356</v>
       </c>
@@ -34759,7 +34783,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="645" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="645" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>622</v>
       </c>
@@ -34800,7 +34824,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="646" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="646" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>77</v>
       </c>
@@ -34841,7 +34865,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="647" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="647" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>72</v>
       </c>
@@ -34882,7 +34906,7 @@
         <v>2294</v>
       </c>
     </row>
-    <row r="648" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="648" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>356</v>
       </c>
@@ -34923,7 +34947,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="649" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="649" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>63</v>
       </c>
@@ -34964,7 +34988,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="650" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="650" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>674</v>
       </c>
@@ -35005,7 +35029,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="651" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="651" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>759</v>
       </c>
@@ -35046,7 +35070,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="652" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="652" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>760</v>
       </c>
@@ -35087,7 +35111,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="653" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="653" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>286</v>
       </c>
@@ -35128,7 +35152,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="654" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="654" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>433</v>
       </c>
@@ -35169,7 +35193,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="655" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="655" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>609</v>
       </c>
@@ -35210,7 +35234,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="656" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="656" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>267</v>
       </c>
@@ -35251,7 +35275,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="657" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="657" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>527</v>
       </c>
@@ -35292,7 +35316,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="658" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="658" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>211</v>
       </c>
@@ -35333,7 +35357,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="659" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="659" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>780</v>
       </c>
@@ -35374,7 +35398,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="660" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="660" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>593</v>
       </c>
@@ -35415,7 +35439,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="661" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="661" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>63</v>
       </c>
@@ -35456,7 +35480,7 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="662" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="662" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>657</v>
       </c>
@@ -35497,7 +35521,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="663" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="663" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>613</v>
       </c>
@@ -35538,7 +35562,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="664" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="664" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>551</v>
       </c>
@@ -35579,7 +35603,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="665" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="665" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>753</v>
       </c>
@@ -35620,7 +35644,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="666" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="666" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>341</v>
       </c>
@@ -35661,7 +35685,7 @@
         <v>2313</v>
       </c>
     </row>
-    <row r="667" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="667" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>302</v>
       </c>
@@ -35702,7 +35726,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="668" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="668" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>105</v>
       </c>
@@ -35743,7 +35767,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="669" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="669" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>222</v>
       </c>
@@ -35784,7 +35808,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="670" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="670" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>338</v>
       </c>
@@ -35825,7 +35849,7 @@
         <v>2317</v>
       </c>
     </row>
-    <row r="671" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="671" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>212</v>
       </c>
@@ -35866,7 +35890,7 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="672" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="672" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>571</v>
       </c>
@@ -35907,7 +35931,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="673" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="673" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>222</v>
       </c>
@@ -35948,7 +35972,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="674" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="674" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>637</v>
       </c>
@@ -35989,7 +36013,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="675" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="675" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>340</v>
       </c>
@@ -36030,7 +36054,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="676" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="676" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>557</v>
       </c>
@@ -36071,7 +36095,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="677" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="677" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>83</v>
       </c>
@@ -36112,7 +36136,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="678" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="678" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>59</v>
       </c>
@@ -36153,7 +36177,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="679" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="679" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>385</v>
       </c>
@@ -36194,7 +36218,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="680" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="680" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>684</v>
       </c>
@@ -36235,7 +36259,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="681" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="681" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>746</v>
       </c>
@@ -36276,7 +36300,7 @@
         <v>2328</v>
       </c>
     </row>
-    <row r="682" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="682" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>594</v>
       </c>
@@ -36317,7 +36341,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="683" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="683" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>596</v>
       </c>
@@ -36358,7 +36382,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="684" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="684" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>74</v>
       </c>
@@ -36399,7 +36423,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="685" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="685" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>237</v>
       </c>
@@ -36440,7 +36464,7 @@
         <v>2332</v>
       </c>
     </row>
-    <row r="686" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="686" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>598</v>
       </c>
@@ -36481,7 +36505,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="687" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="687" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>512</v>
       </c>
@@ -36522,7 +36546,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="688" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="688" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>509</v>
       </c>
@@ -36563,7 +36587,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="689" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="689" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>770</v>
       </c>
@@ -36604,7 +36628,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="690" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="690" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>809</v>
       </c>
@@ -36645,7 +36669,7 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="691" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="691" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>236</v>
       </c>
@@ -36686,7 +36710,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="692" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="692" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>13</v>
       </c>
@@ -36727,7 +36751,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="693" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="693" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>159</v>
       </c>
@@ -36768,7 +36792,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="694" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="694" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>200</v>
       </c>
@@ -36809,7 +36833,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="695" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="695" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>422</v>
       </c>
@@ -36850,7 +36874,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="696" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="696" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>497</v>
       </c>
@@ -36891,7 +36915,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="697" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="697" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>14</v>
       </c>
@@ -36932,7 +36956,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="698" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="698" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>45</v>
       </c>
@@ -36973,7 +36997,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="699" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="699" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>150</v>
       </c>
@@ -37014,7 +37038,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="700" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="700" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>783</v>
       </c>
@@ -37055,7 +37079,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="701" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="701" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>459</v>
       </c>
@@ -37096,7 +37120,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="702" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="702" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>218</v>
       </c>
@@ -37137,7 +37161,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="703" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="703" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>242</v>
       </c>
@@ -37178,7 +37202,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="704" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="704" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>241</v>
       </c>
@@ -37219,7 +37243,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="705" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="705" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>258</v>
       </c>
@@ -37260,7 +37284,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="706" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="706" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>176</v>
       </c>
@@ -37301,7 +37325,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="707" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="707" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>355</v>
       </c>
@@ -37342,7 +37366,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="708" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="708" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>737</v>
       </c>
@@ -37383,7 +37407,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="709" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="709" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>125</v>
       </c>
@@ -37424,7 +37448,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="710" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="710" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>381</v>
       </c>
@@ -37465,7 +37489,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="711" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="711" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>164</v>
       </c>
@@ -37506,7 +37530,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="712" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="712" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>654</v>
       </c>
@@ -37547,7 +37571,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="713" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="713" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>323</v>
       </c>
@@ -37588,7 +37612,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="714" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="714" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>19</v>
       </c>
@@ -37629,7 +37653,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="715" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="715" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>71</v>
       </c>
@@ -37670,7 +37694,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="716" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="716" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>580</v>
       </c>
@@ -37711,7 +37735,7 @@
         <v>2363</v>
       </c>
     </row>
-    <row r="717" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="717" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>231</v>
       </c>
@@ -37752,7 +37776,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="718" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="718" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>605</v>
       </c>
@@ -37793,7 +37817,7 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="719" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="719" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>486</v>
       </c>
@@ -37834,7 +37858,7 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="720" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="720" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>381</v>
       </c>
@@ -37875,7 +37899,7 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="721" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="721" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>376</v>
       </c>
@@ -37916,7 +37940,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="722" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="722" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>654</v>
       </c>
@@ -37957,7 +37981,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="723" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="723" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>542</v>
       </c>
@@ -37998,7 +38022,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="724" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="724" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>640</v>
       </c>
@@ -38039,7 +38063,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="725" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="725" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>381</v>
       </c>
@@ -38080,7 +38104,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="726" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="726" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>85</v>
       </c>
@@ -38121,7 +38145,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="727" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="727" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>381</v>
       </c>
@@ -38162,7 +38186,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="728" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="728" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>109</v>
       </c>
@@ -38203,7 +38227,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="729" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="729" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>110</v>
       </c>
@@ -38244,7 +38268,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="730" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="730" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>739</v>
       </c>
@@ -38285,7 +38309,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="731" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="731" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>241</v>
       </c>
@@ -38326,7 +38350,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="732" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="732" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>61</v>
       </c>
@@ -38367,7 +38391,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="733" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="733" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>60</v>
       </c>
@@ -38408,7 +38432,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="734" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="734" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>757</v>
       </c>
@@ -38449,7 +38473,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="735" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="735" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>728</v>
       </c>
@@ -38490,7 +38514,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="736" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="736" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>406</v>
       </c>
@@ -38531,7 +38555,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="737" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="737" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>254</v>
       </c>
@@ -38572,7 +38596,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="738" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="738" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>207</v>
       </c>
@@ -38613,7 +38637,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="739" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="739" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>187</v>
       </c>
@@ -38654,7 +38678,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="740" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="740" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>653</v>
       </c>
@@ -38695,7 +38719,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="741" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="741" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>768</v>
       </c>
@@ -38736,7 +38760,7 @@
         <v>2388</v>
       </c>
     </row>
-    <row r="742" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="742" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>464</v>
       </c>
@@ -38777,7 +38801,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="743" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="743" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>276</v>
       </c>
@@ -38818,7 +38842,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="744" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="744" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>81</v>
       </c>
@@ -38859,7 +38883,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="745" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="745" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>344</v>
       </c>
@@ -38900,7 +38924,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="746" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="746" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>227</v>
       </c>
@@ -38941,7 +38965,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="747" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="747" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>384</v>
       </c>
@@ -38982,7 +39006,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="748" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="748" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>94</v>
       </c>
@@ -39023,7 +39047,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="749" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="749" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>61</v>
       </c>
@@ -39064,7 +39088,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="750" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="750" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>381</v>
       </c>
@@ -39105,7 +39129,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="751" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="751" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>711</v>
       </c>
@@ -39146,7 +39170,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="752" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="752" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>229</v>
       </c>
@@ -39187,7 +39211,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="753" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="753" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>490</v>
       </c>
@@ -39228,7 +39252,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="754" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="754" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>240</v>
       </c>
@@ -39269,7 +39293,7 @@
         <v>2401</v>
       </c>
     </row>
-    <row r="755" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="755" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>507</v>
       </c>
@@ -39310,7 +39334,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="756" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="756" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>465</v>
       </c>
@@ -39351,7 +39375,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="757" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="757" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>166</v>
       </c>
@@ -39392,7 +39416,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="758" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="758" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>171</v>
       </c>
@@ -39433,7 +39457,7 @@
         <v>2405</v>
       </c>
     </row>
-    <row r="759" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="759" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>510</v>
       </c>
@@ -39474,7 +39498,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="760" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="760" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>190</v>
       </c>
@@ -39515,7 +39539,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="761" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="761" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>612</v>
       </c>
@@ -39556,7 +39580,7 @@
         <v>2408</v>
       </c>
     </row>
-    <row r="762" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="762" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>735</v>
       </c>
@@ -39597,7 +39621,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="763" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="763" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>455</v>
       </c>
@@ -39638,7 +39662,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="764" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="764" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>245</v>
       </c>
@@ -39679,7 +39703,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="765" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="765" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>467</v>
       </c>
@@ -39720,7 +39744,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="766" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="766" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>555</v>
       </c>
@@ -39761,7 +39785,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="767" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="767" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>630</v>
       </c>
@@ -39802,7 +39826,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="768" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="768" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>633</v>
       </c>
@@ -39843,7 +39867,7 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="769" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="769" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>743</v>
       </c>
@@ -39884,7 +39908,7 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="770" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="770" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>199</v>
       </c>
@@ -39925,7 +39949,7 @@
         <v>2417</v>
       </c>
     </row>
-    <row r="771" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="771" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>743</v>
       </c>
@@ -39966,7 +39990,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="772" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="772" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>20</v>
       </c>
@@ -40007,7 +40031,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="773" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="773" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>550</v>
       </c>
@@ -40048,7 +40072,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="774" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="774" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>741</v>
       </c>
@@ -40089,7 +40113,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="775" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="775" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>175</v>
       </c>
@@ -40130,7 +40154,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="776" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="776" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>692</v>
       </c>
@@ -40171,7 +40195,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="777" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="777" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>524</v>
       </c>
@@ -40212,7 +40236,7 @@
         <v>2424</v>
       </c>
     </row>
-    <row r="778" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="778" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>132</v>
       </c>
@@ -40253,7 +40277,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="779" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="779" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>119</v>
       </c>
@@ -40294,7 +40318,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="780" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="780" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>525</v>
       </c>
@@ -40335,7 +40359,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="781" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="781" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>285</v>
       </c>
@@ -40376,7 +40400,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="782" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="782" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>38</v>
       </c>
@@ -40417,7 +40441,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="783" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="783" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>742</v>
       </c>
@@ -40458,7 +40482,7 @@
         <v>2430</v>
       </c>
     </row>
-    <row r="784" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="784" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>280</v>
       </c>
@@ -40499,7 +40523,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="785" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="785" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>291</v>
       </c>
@@ -40540,7 +40564,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="786" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="786" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>565</v>
       </c>
@@ -40581,7 +40605,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="787" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="787" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>671</v>
       </c>
@@ -40622,7 +40646,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="788" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="788" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>779</v>
       </c>
@@ -40663,7 +40687,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="789" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="789" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>252</v>
       </c>
@@ -40704,7 +40728,7 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="790" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="790" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>615</v>
       </c>
@@ -40745,7 +40769,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="791" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="791" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>38</v>
       </c>
@@ -40786,7 +40810,7 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="792" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="792" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>378</v>
       </c>
@@ -40827,7 +40851,7 @@
         <v>2439</v>
       </c>
     </row>
-    <row r="793" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="793" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>679</v>
       </c>
@@ -40868,7 +40892,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="794" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="794" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>750</v>
       </c>
@@ -40909,7 +40933,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="795" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="795" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>131</v>
       </c>
@@ -40950,7 +40974,7 @@
         <v>2442</v>
       </c>
     </row>
-    <row r="796" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="796" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>627</v>
       </c>
@@ -40991,7 +41015,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="797" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="797" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>795</v>
       </c>
@@ -41032,7 +41056,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="798" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="798" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>704</v>
       </c>
@@ -41073,7 +41097,7 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="799" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="799" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>314</v>
       </c>
@@ -41114,7 +41138,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="800" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="800" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>734</v>
       </c>
@@ -41155,7 +41179,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="801" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="801" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>629</v>
       </c>
@@ -41196,7 +41220,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="802" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="802" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>774</v>
       </c>
@@ -41237,7 +41261,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="803" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="803" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A803" s="4" t="s">
         <v>303</v>
       </c>
@@ -41278,7 +41302,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="804" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="804" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>677</v>
       </c>
@@ -41319,7 +41343,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="805" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="805" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>416</v>
       </c>
@@ -41360,7 +41384,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="806" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="806" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>469</v>
       </c>
@@ -41401,7 +41425,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="807" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="807" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>506</v>
       </c>
@@ -41442,7 +41466,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="808" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="808" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>748</v>
       </c>
@@ -41483,7 +41507,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="809" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="809" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>134</v>
       </c>
@@ -41524,7 +41548,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="810" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="810" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>425</v>
       </c>
@@ -41565,7 +41589,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="811" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="811" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>457</v>
       </c>
@@ -41606,7 +41630,7 @@
         <v>2458</v>
       </c>
     </row>
-    <row r="812" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="812" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>274</v>
       </c>
@@ -41647,7 +41671,7 @@
         <v>2459</v>
       </c>
     </row>
-    <row r="813" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="813" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
         <v>618</v>
       </c>
@@ -41688,7 +41712,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="814" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="814" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>575</v>
       </c>
@@ -41729,7 +41753,7 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="815" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="815" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
         <v>96</v>
       </c>
@@ -41770,7 +41794,7 @@
         <v>2462</v>
       </c>
     </row>
-    <row r="816" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="816" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
         <v>364</v>
       </c>
@@ -41811,7 +41835,7 @@
         <v>2463</v>
       </c>
     </row>
-    <row r="817" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="817" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>477</v>
       </c>
@@ -41852,7 +41876,7 @@
         <v>2464</v>
       </c>
     </row>
-    <row r="818" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="818" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
         <v>112</v>
       </c>
@@ -41893,7 +41917,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="819" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="819" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
         <v>146</v>
       </c>
@@ -41934,7 +41958,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="820" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="820" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>126</v>
       </c>
@@ -41975,7 +41999,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="821" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="821" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
         <v>478</v>
       </c>
@@ -42016,7 +42040,7 @@
         <v>2468</v>
       </c>
     </row>
-    <row r="822" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="822" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>523</v>
       </c>
@@ -42057,7 +42081,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="823" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="823" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>756</v>
       </c>
@@ -42098,7 +42122,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="824" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="824" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
         <v>289</v>
       </c>
@@ -42139,7 +42163,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="825" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="825" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>201</v>
       </c>
@@ -42180,7 +42204,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="826" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="826" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
         <v>434</v>
       </c>
@@ -42221,7 +42245,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="827" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="827" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
         <v>436</v>
       </c>
@@ -42262,7 +42286,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="828" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="828" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>638</v>
       </c>
@@ -42303,7 +42327,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="829" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="829" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
         <v>680</v>
       </c>
@@ -42344,7 +42368,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="830" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="830" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>342</v>
       </c>
@@ -42385,7 +42409,7 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="831" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="831" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>621</v>
       </c>
@@ -42426,7 +42450,7 @@
         <v>2478</v>
       </c>
     </row>
-    <row r="832" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="832" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
         <v>140</v>
       </c>
@@ -42467,7 +42491,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="833" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="833" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
         <v>778</v>
       </c>
@@ -42508,7 +42532,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="834" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="834" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
         <v>189</v>
       </c>
@@ -42549,7 +42573,7 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="835" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="835" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
         <v>139</v>
       </c>
@@ -42590,7 +42614,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="836" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="836" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
         <v>327</v>
       </c>
@@ -42631,7 +42655,7 @@
         <v>2483</v>
       </c>
     </row>
-    <row r="837" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="837" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
         <v>717</v>
       </c>
@@ -42672,7 +42696,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="838" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="838" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
         <v>168</v>
       </c>
@@ -42713,7 +42737,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="839" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="839" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
         <v>810</v>
       </c>
@@ -42752,6 +42776,170 @@
       </c>
       <c r="M839" t="s">
         <v>2486</v>
+      </c>
+    </row>
+    <row r="840" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A840" t="s">
+        <v>649</v>
+      </c>
+      <c r="B840" t="s">
+        <v>2620</v>
+      </c>
+      <c r="C840" s="5">
+        <v>93084</v>
+      </c>
+      <c r="D840">
+        <v>2013</v>
+      </c>
+      <c r="E840">
+        <v>33.411999999999999</v>
+      </c>
+      <c r="F840" s="2">
+        <v>-110.85599999999999</v>
+      </c>
+      <c r="G840" t="s">
+        <v>2622</v>
+      </c>
+      <c r="H840" s="5">
+        <v>23160</v>
+      </c>
+      <c r="I840">
+        <v>32.130000000000003</v>
+      </c>
+      <c r="J840" s="2">
+        <v>-110.96</v>
+      </c>
+      <c r="K840">
+        <v>777</v>
+      </c>
+      <c r="L840">
+        <v>10</v>
+      </c>
+      <c r="M840" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="841" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A841" t="s">
+        <v>649</v>
+      </c>
+      <c r="B841" t="s">
+        <v>2623</v>
+      </c>
+      <c r="C841" s="5">
+        <v>93084</v>
+      </c>
+      <c r="D841">
+        <v>2009</v>
+      </c>
+      <c r="E841">
+        <v>33.411999999999999</v>
+      </c>
+      <c r="F841" s="2">
+        <v>-110.85599999999999</v>
+      </c>
+      <c r="G841" t="s">
+        <v>2622</v>
+      </c>
+      <c r="H841" s="5">
+        <v>23160</v>
+      </c>
+      <c r="I841">
+        <v>32.130000000000003</v>
+      </c>
+      <c r="J841" s="2">
+        <v>-110.96</v>
+      </c>
+      <c r="K841">
+        <v>777</v>
+      </c>
+      <c r="L841">
+        <v>10</v>
+      </c>
+      <c r="M841" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="842" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A842" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B842" t="s">
+        <v>2625</v>
+      </c>
+      <c r="C842" s="5">
+        <v>23160</v>
+      </c>
+      <c r="D842">
+        <v>2019</v>
+      </c>
+      <c r="E842">
+        <v>33.006</v>
+      </c>
+      <c r="F842" s="2">
+        <v>-110.786</v>
+      </c>
+      <c r="G842" t="s">
+        <v>2622</v>
+      </c>
+      <c r="H842" s="5">
+        <v>23160</v>
+      </c>
+      <c r="I842">
+        <v>32.130000000000003</v>
+      </c>
+      <c r="J842" s="2">
+        <v>-110.96</v>
+      </c>
+      <c r="K842">
+        <v>777</v>
+      </c>
+      <c r="L842">
+        <v>10</v>
+      </c>
+      <c r="M842" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="843" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A843" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B843" t="s">
+        <v>2630</v>
+      </c>
+      <c r="C843" s="5">
+        <v>23183</v>
+      </c>
+      <c r="D843">
+        <v>2019</v>
+      </c>
+      <c r="E843">
+        <v>33</v>
+      </c>
+      <c r="F843" s="2">
+        <v>-110.77500000000001</v>
+      </c>
+      <c r="G843" t="s">
+        <v>2622</v>
+      </c>
+      <c r="H843" s="5">
+        <v>23160</v>
+      </c>
+      <c r="I843">
+        <v>32.130000000000003</v>
+      </c>
+      <c r="J843" s="2">
+        <v>-110.96</v>
+      </c>
+      <c r="K843">
+        <v>777</v>
+      </c>
+      <c r="L843">
+        <v>10</v>
+      </c>
+      <c r="M843" t="s">
+        <v>2629</v>
       </c>
     </row>
   </sheetData>
@@ -42764,12 +42952,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0423BC11-8512-4735-914A-74F1B1AA03C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
